--- a/biology/Médecine/Quatrième_métacarpien/Quatrième_métacarpien.xlsx
+++ b/biology/Médecine/Quatrième_métacarpien/Quatrième_métacarpien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Quatrième_métacarpien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quatrième métacarpien est est un os long du métacarpe situé à l'arrière de l'annulaire. Il est relié au capitatum et à l'hamatum du carpe au niveau de la quatrième articulation carpo-métacarpienne et à la phalange proximale du majeur au niveau de la quatrième articulation métacarpo-phalangienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Quatrième_métacarpien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quatrième métacarpien est plus court que le troisième métacarpien.
-Base
-La base est petite et quadrilatère.
-Sa face supérieure présente deux facettes : une grande médiale pour l'articulation avec l'hamatum, et une petite latérale pour le capitatum.
-Sur le côté radial se trouvent deux facettes ovales, pour l'articulation avec le troisième métacarpien, et sur le côté ulnaire une seule facette concave, pour le cinquième métacarpien.
-Corps
-La diaphyse donne naissance au deuxième muscle interosseux palmaire et aux troisième et quatrième muscle interosseux dorsaux de la main.
 </t>
         </is>
       </c>
@@ -530,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Quatrième_métacarpien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Embryologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le processus d'ossification commence dans la diaphyse pendant la vie prénatale et dans la tête entre le 11e et le 37e mois[1].
+          <t>Base</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base est petite et quadrilatère.
+Sa face supérieure présente deux facettes : une grande médiale pour l'articulation avec l'hamatum, et une petite latérale pour le capitatum.
+Sur le côté radial se trouvent deux facettes ovales, pour l'articulation avec le troisième métacarpien, et sur le côté ulnaire une seule facette concave, pour le cinquième métacarpien.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quatri%C3%A8me_m%C3%A9tacarpien</t>
+          <t>Quatrième_métacarpien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Corps</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diaphyse donne naissance au deuxième muscle interosseux palmaire et aux troisième et quatrième muscle interosseux dorsaux de la main.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quatrième_métacarpien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quatri%C3%A8me_m%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus d'ossification commence dans la diaphyse pendant la vie prénatale et dans la tête entre le 11e et le 37e mois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quatrième_métacarpien</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quatri%C3%A8me_m%C3%A9tacarpien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Un quatrième métacarpien raccourci peut être un symptôme du syndrome de Kallmann, une maladie génétique qui entraîne l'échec du début ou la non-achèvement de la puberté .
 Un quatrième métacarpien court peut également être trouvé dans le syndrome de Turner, un trouble impliquant les chromosomes sexuels.
-Une fracture du col transversal des quatrième et/ou  du cinquième métacarpien secondaire à un choc axial est connue sous le nom de fracture du boxeur[2].
+Une fracture du col transversal des quatrième et/ou  du cinquième métacarpien secondaire à un choc axial est connue sous le nom de fracture du boxeur.
 </t>
         </is>
       </c>
